--- a/docs/ModeloRelacional2.xlsx
+++ b/docs/ModeloRelacional2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arisc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.cordero\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ADB4B8-33DB-459C-8E1D-D4ED231F0500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E702CDDD-A2D5-4BEA-8842-6AD3E23C86F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstalacionHabitacionHotel" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Cliente" sheetId="13" r:id="rId13"/>
     <sheet name="Operador" sheetId="14" r:id="rId14"/>
     <sheet name="Oferta" sheetId="15" r:id="rId15"/>
+    <sheet name="Reserva" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="360">
   <si>
     <t>InstalacionHabitacionHotel</t>
   </si>
@@ -892,12 +893,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>precioEspecialTomado</t>
-  </si>
-  <si>
-    <t>NUMERIC(1,0)</t>
-  </si>
-  <si>
     <t>direccionHostalHabitacionHostal</t>
   </si>
   <si>
@@ -979,15 +974,9 @@
     <t>costo_seguro_arrendamiento</t>
   </si>
   <si>
-    <t>precio_especial_tomado</t>
-  </si>
-  <si>
     <t>id_operador</t>
   </si>
   <si>
-    <t>id_cliente</t>
-  </si>
-  <si>
     <t>direccion_hostal_habitacion_hostal</t>
   </si>
   <si>
@@ -1136,6 +1125,12 @@
   </si>
   <si>
     <t>Maria Florez</t>
+  </si>
+  <si>
+    <t>PrecioEspecialTomado</t>
+  </si>
+  <si>
+    <t>idOferta</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1160,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,6 +1275,18 @@
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1293,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1322,11 +1329,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1776,29 +1785,29 @@
   <dimension ref="C1:E33"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="16383" max="16384" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="16383" max="16384" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="26" t="s">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,7 +1829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -1831,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>168</v>
       </c>
@@ -1842,7 +1851,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>171</v>
       </c>
@@ -1853,7 +1862,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>171</v>
       </c>
@@ -1864,7 +1873,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>172</v>
       </c>
@@ -1875,7 +1884,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>173</v>
       </c>
@@ -1886,7 +1895,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>174</v>
       </c>
@@ -1897,7 +1906,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>173</v>
       </c>
@@ -1908,7 +1917,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>171</v>
       </c>
@@ -1919,7 +1928,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>172</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>178</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>176</v>
       </c>
@@ -1952,7 +1961,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>177</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>178</v>
       </c>
@@ -1974,7 +1983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>171</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>171</v>
       </c>
@@ -1996,7 +2005,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>174</v>
       </c>
@@ -2007,7 +2016,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>174</v>
       </c>
@@ -2018,7 +2027,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>173</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>173</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>172</v>
       </c>
@@ -2051,7 +2060,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>172</v>
       </c>
@@ -2062,7 +2071,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>176</v>
       </c>
@@ -2073,7 +2082,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>176</v>
       </c>
@@ -2084,7 +2093,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>177</v>
       </c>
@@ -2095,7 +2104,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>177</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>178</v>
       </c>
@@ -2137,19 +2146,19 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
@@ -2157,7 +2166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>54</v>
       </c>
@@ -2165,7 +2174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -2181,7 +2190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>270</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>271</v>
       </c>
@@ -2197,7 +2206,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>272</v>
       </c>
@@ -2225,29 +2234,29 @@
       <selection activeCell="C18" sqref="C18:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -2316,23 +2325,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="27"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="30"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -2343,24 +2352,24 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2369,7 +2378,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2378,12 +2387,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2392,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2401,12 +2410,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2415,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2424,12 +2433,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2438,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2447,12 +2456,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2461,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2491,25 +2500,25 @@
       <selection activeCell="C12" sqref="C12:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
@@ -2526,7 +2535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>13</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -2560,13 +2569,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="27"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="30"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -2574,7 +2583,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -2583,52 +2592,52 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F14" t="s">
         <v>204</v>
@@ -2655,23 +2664,23 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>68</v>
       </c>
@@ -2685,7 +2694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
@@ -2699,7 +2708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -2713,7 +2722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>68</v>
       </c>
@@ -2727,270 +2736,270 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D13" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D14" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D16" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D18" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E18" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D20" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D21" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E21" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E22" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D23" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E23" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D24" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E24" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D25" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E25" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D26" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E26" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D27" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E27" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3006,31 +3015,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3050,7 +3059,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>75</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -3090,12 +3099,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>68</v>
       </c>
@@ -3106,24 +3115,24 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>456</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3132,15 +3141,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>789</v>
       </c>
       <c r="C14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D14" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3149,15 +3158,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3166,15 +3175,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3183,15 +3192,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>356</v>
       </c>
       <c r="C17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3200,15 +3209,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>861</v>
       </c>
       <c r="C18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D18" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3217,71 +3226,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>555</v>
       </c>
       <c r="C20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>666</v>
       </c>
       <c r="C21" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>478</v>
       </c>
       <c r="C22" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D22" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>321</v>
       </c>
       <c r="C23" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D23" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -3300,42 +3309,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" customWidth="1"/>
-    <col min="9" max="10" width="26.109375" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
-    <col min="12" max="12" width="26.21875" customWidth="1"/>
-    <col min="13" max="13" width="29.88671875" customWidth="1"/>
-    <col min="14" max="15" width="35" customWidth="1"/>
-    <col min="16" max="17" width="43.6640625" customWidth="1"/>
-    <col min="18" max="19" width="40" customWidth="1"/>
-    <col min="20" max="20" width="36.44140625" customWidth="1"/>
-    <col min="21" max="22" width="29.109375" customWidth="1"/>
-    <col min="23" max="23" width="31.33203125" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875"/>
+    <col min="1" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" customWidth="1"/>
+    <col min="14" max="14" width="35" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" customWidth="1"/>
+    <col min="16" max="16" width="39.85546875" customWidth="1"/>
+    <col min="17" max="17" width="29.42578125" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" customWidth="1"/>
+    <col min="22" max="22" width="29.140625" customWidth="1"/>
+    <col min="23" max="23" width="31.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>68</v>
       </c>
@@ -3363,11 +3377,9 @@
       <c r="I4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -3395,11 +3407,9 @@
       <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3427,39 +3437,34 @@
       <c r="I6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="J6" s="15"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>93</v>
       </c>
@@ -3478,39 +3483,33 @@
       <c r="H10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>6</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C14" s="14" t="s">
         <v>89</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>94</v>
       </c>
@@ -3550,7 +3549,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
         <v>6</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -3578,77 +3577,71 @@
         <v>276</v>
       </c>
       <c r="C18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" t="s">
         <v>302</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>303</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>304</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>305</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>306</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>307</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>308</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>309</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
+        <v>170</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
         <v>310</v>
       </c>
-      <c r="L18" t="s">
+      <c r="P18" t="s">
         <v>311</v>
       </c>
-      <c r="M18" t="s">
+      <c r="Q18" t="s">
+        <v>273</v>
+      </c>
+      <c r="R18" t="s">
         <v>312</v>
       </c>
-      <c r="N18" t="s">
+      <c r="S18" t="s">
         <v>313</v>
       </c>
-      <c r="O18" t="s">
-        <v>170</v>
-      </c>
-      <c r="P18" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="T18" t="s">
+        <v>236</v>
+      </c>
+      <c r="U18" t="s">
         <v>314</v>
       </c>
-      <c r="R18" t="s">
-        <v>315</v>
-      </c>
-      <c r="S18" t="s">
-        <v>273</v>
-      </c>
-      <c r="T18" t="s">
-        <v>316</v>
-      </c>
-      <c r="U18" t="s">
-        <v>317</v>
-      </c>
-      <c r="V18" t="s">
-        <v>236</v>
-      </c>
-      <c r="W18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="26">
         <v>43475</v>
       </c>
       <c r="D19">
@@ -3661,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H19">
         <v>40000</v>
@@ -3670,22 +3663,16 @@
         <v>100000</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
         <v>456</v>
       </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>187</v>
-      </c>
-      <c r="N19">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3705,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H20">
         <v>40000</v>
@@ -3714,19 +3701,16 @@
         <v>100000</v>
       </c>
       <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
         <v>456</v>
       </c>
-      <c r="M20" t="s">
+      <c r="K20" t="s">
         <v>187</v>
       </c>
-      <c r="N20">
+      <c r="L20">
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3746,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H21">
         <v>40000</v>
@@ -3755,22 +3739,16 @@
         <v>100000</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
         <v>456</v>
       </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
       <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21" t="s">
-        <v>190</v>
-      </c>
-      <c r="N21">
         <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3790,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H22">
         <v>40000</v>
@@ -3799,22 +3777,16 @@
         <v>100000</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
         <v>456</v>
       </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
       <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22" t="s">
-        <v>221</v>
-      </c>
-      <c r="N22">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3834,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H23">
         <v>40000</v>
@@ -3843,19 +3815,16 @@
         <v>100000</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
         <v>456</v>
       </c>
-      <c r="M23" t="s">
+      <c r="K23" t="s">
         <v>221</v>
       </c>
-      <c r="N23">
+      <c r="L23">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -3875,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H24">
         <v>40000</v>
@@ -3884,19 +3853,16 @@
         <v>100000</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
         <v>789</v>
       </c>
-      <c r="M24" t="s">
+      <c r="K24" t="s">
         <v>221</v>
       </c>
-      <c r="N24">
+      <c r="L24">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -3916,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H25">
         <v>40000</v>
@@ -3925,19 +3891,16 @@
         <v>100000</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
         <v>789</v>
       </c>
-      <c r="M25" t="s">
+      <c r="K25" t="s">
         <v>223</v>
       </c>
-      <c r="N25">
+      <c r="L25">
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -3957,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H26">
         <v>40000</v>
@@ -3966,22 +3929,16 @@
         <v>100000</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
         <v>789</v>
       </c>
+      <c r="K26" t="s">
+        <v>225</v>
+      </c>
       <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26" t="s">
-        <v>225</v>
-      </c>
-      <c r="N26">
         <v>457</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -4001,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H27">
         <v>40000</v>
@@ -4010,22 +3967,16 @@
         <v>100000</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
         <v>789</v>
       </c>
+      <c r="K27" t="s">
+        <v>225</v>
+      </c>
       <c r="L27">
-        <v>5</v>
-      </c>
-      <c r="M27" t="s">
-        <v>225</v>
-      </c>
-      <c r="N27">
         <v>404</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -4045,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H28">
         <v>40000</v>
@@ -4054,22 +4005,16 @@
         <v>100000</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
         <v>789</v>
       </c>
+      <c r="K28" t="s">
+        <v>200</v>
+      </c>
       <c r="L28">
-        <v>6</v>
-      </c>
-      <c r="M28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N28">
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -4089,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H29">
         <v>40000</v>
@@ -4098,26 +4043,23 @@
         <v>100000</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
         <v>789</v>
       </c>
-      <c r="M29" t="s">
-        <v>320</v>
-      </c>
-      <c r="N29">
+      <c r="K29" t="s">
+        <v>316</v>
+      </c>
+      <c r="L29">
         <v>505</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>12</v>
       </c>
       <c r="B30">
         <v>50</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="26">
         <v>44790</v>
       </c>
       <c r="D30">
@@ -4130,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H30">
         <v>50000</v>
@@ -4139,22 +4081,16 @@
         <v>200000</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
         <v>123</v>
       </c>
-      <c r="L30">
-        <v>8</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="M30" t="s">
         <v>113</v>
       </c>
-      <c r="P30" t="s">
+      <c r="N30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13</v>
       </c>
@@ -4174,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H31">
         <v>50000</v>
@@ -4183,26 +4119,23 @@
         <v>200000</v>
       </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
         <v>110</v>
       </c>
-      <c r="O31" t="s">
+      <c r="M31" t="s">
         <v>113</v>
       </c>
-      <c r="P31" t="s">
+      <c r="N31" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
       <c r="B32">
         <v>120</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="26">
         <v>43922</v>
       </c>
       <c r="D32">
@@ -4215,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H32">
         <v>50000</v>
@@ -4224,29 +4157,23 @@
         <v>200000</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
         <v>110</v>
       </c>
-      <c r="L32">
-        <v>9</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="M32" t="s">
         <v>102</v>
       </c>
-      <c r="P32" t="s">
+      <c r="N32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15</v>
       </c>
       <c r="B33">
         <v>9</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="26">
         <v>44420</v>
       </c>
       <c r="D33">
@@ -4259,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H33">
         <v>50000</v>
@@ -4268,22 +4195,16 @@
         <v>200000</v>
       </c>
       <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
         <v>123</v>
       </c>
-      <c r="L33">
-        <v>10</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="M33" t="s">
         <v>105</v>
       </c>
-      <c r="P33" t="s">
+      <c r="N33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>16</v>
       </c>
@@ -4303,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H34">
         <v>50000</v>
@@ -4312,29 +4233,23 @@
         <v>200000</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
         <v>123</v>
       </c>
-      <c r="L34">
-        <v>11</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="M34" t="s">
         <v>116</v>
       </c>
-      <c r="P34" t="s">
+      <c r="N34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>17</v>
       </c>
       <c r="B35">
         <v>50</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="26">
         <v>45024</v>
       </c>
       <c r="D35">
@@ -4347,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H35">
         <v>50000</v>
@@ -4356,26 +4271,23 @@
         <v>200000</v>
       </c>
       <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
         <v>123</v>
       </c>
-      <c r="O35" t="s">
+      <c r="M35" t="s">
         <v>121</v>
       </c>
-      <c r="P35" t="s">
+      <c r="N35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
       <c r="B36">
         <v>200</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="26">
         <v>45024</v>
       </c>
       <c r="D36">
@@ -4388,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H36">
         <v>50000</v>
@@ -4397,26 +4309,23 @@
         <v>200000</v>
       </c>
       <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
         <v>110</v>
       </c>
-      <c r="O36" t="s">
+      <c r="M36" t="s">
         <v>121</v>
       </c>
-      <c r="P36" t="s">
+      <c r="N36" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>19</v>
       </c>
       <c r="B37">
         <v>50</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="26">
         <v>44791</v>
       </c>
       <c r="D37">
@@ -4429,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H37">
         <v>50000</v>
@@ -4438,26 +4347,23 @@
         <v>200000</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
         <v>110</v>
       </c>
-      <c r="O37" t="s">
+      <c r="M37" t="s">
         <v>127</v>
       </c>
-      <c r="P37" t="s">
+      <c r="N37" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20</v>
       </c>
       <c r="B38">
         <v>30</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="26">
         <v>44802</v>
       </c>
       <c r="D38">
@@ -4470,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H38">
         <v>50000</v>
@@ -4479,22 +4385,16 @@
         <v>200000</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
         <v>123</v>
       </c>
-      <c r="L38">
-        <v>12</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="M38" t="s">
         <v>127</v>
       </c>
-      <c r="P38" t="s">
+      <c r="N38" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>21</v>
       </c>
@@ -4514,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H39">
         <v>500000</v>
@@ -4523,22 +4423,16 @@
         <v>1000000</v>
       </c>
       <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
         <v>356</v>
       </c>
-      <c r="L39">
-        <v>13</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="O39" t="s">
         <v>239</v>
       </c>
-      <c r="R39" t="s">
+      <c r="P39" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>22</v>
       </c>
@@ -4558,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H40">
         <v>500000</v>
@@ -4567,22 +4461,16 @@
         <v>1000000</v>
       </c>
       <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
         <v>356</v>
       </c>
-      <c r="L40">
-        <v>14</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="O40" t="s">
         <v>239</v>
       </c>
-      <c r="R40" t="s">
+      <c r="P40" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>23</v>
       </c>
@@ -4602,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H41">
         <v>500000</v>
@@ -4611,26 +4499,23 @@
         <v>1000000</v>
       </c>
       <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
         <v>356</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="O41" t="s">
         <v>239</v>
       </c>
-      <c r="R41" t="s">
+      <c r="P41" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>24</v>
       </c>
       <c r="B42">
         <v>250</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="26">
         <v>44591</v>
       </c>
       <c r="D42">
@@ -4643,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H42">
         <v>500000</v>
@@ -4652,22 +4537,16 @@
         <v>1000000</v>
       </c>
       <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
         <v>861</v>
       </c>
-      <c r="L42">
-        <v>15</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="O42" t="s">
         <v>247</v>
       </c>
-      <c r="R42" t="s">
+      <c r="P42" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>25</v>
       </c>
@@ -4687,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H43">
         <v>500000</v>
@@ -4696,19 +4575,16 @@
         <v>1000000</v>
       </c>
       <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
         <v>861</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="O43" t="s">
         <v>247</v>
       </c>
-      <c r="R43" t="s">
+      <c r="P43" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>26</v>
       </c>
@@ -4728,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H44">
         <v>500000</v>
@@ -4737,19 +4613,16 @@
         <v>1000000</v>
       </c>
       <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
         <v>861</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="O44" t="s">
         <v>247</v>
       </c>
-      <c r="R44" t="s">
+      <c r="P44" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>27</v>
       </c>
@@ -4769,7 +4642,7 @@
         <v>40000000</v>
       </c>
       <c r="G45" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H45">
         <v>500000</v>
@@ -4778,22 +4651,16 @@
         <v>1000000</v>
       </c>
       <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
         <v>142</v>
       </c>
-      <c r="L45">
-        <v>16</v>
-      </c>
-      <c r="S45" t="s">
+      <c r="Q45" t="s">
         <v>256</v>
       </c>
-      <c r="T45">
+      <c r="R45">
         <v>587</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>28</v>
       </c>
@@ -4813,7 +4680,7 @@
         <v>70000000</v>
       </c>
       <c r="G46" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H46">
         <v>500000</v>
@@ -4822,22 +4689,16 @@
         <v>1000000</v>
       </c>
       <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
         <v>142</v>
       </c>
-      <c r="L46">
-        <v>17</v>
-      </c>
-      <c r="S46" t="s">
+      <c r="Q46" t="s">
         <v>256</v>
       </c>
-      <c r="T46">
+      <c r="R46">
         <v>588</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>29</v>
       </c>
@@ -4857,7 +4718,7 @@
         <v>75000000</v>
       </c>
       <c r="G47" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H47">
         <v>500000</v>
@@ -4866,19 +4727,16 @@
         <v>1000000</v>
       </c>
       <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
         <v>142</v>
       </c>
-      <c r="S47" t="s">
+      <c r="Q47" t="s">
         <v>256</v>
       </c>
-      <c r="T47">
+      <c r="R47">
         <v>589</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>30</v>
       </c>
@@ -4898,7 +4756,7 @@
         <v>30000000</v>
       </c>
       <c r="G48" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H48">
         <v>500000</v>
@@ -4907,22 +4765,16 @@
         <v>1000000</v>
       </c>
       <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
         <v>555</v>
       </c>
-      <c r="L48">
-        <v>18</v>
-      </c>
-      <c r="S48" t="s">
+      <c r="Q48" t="s">
         <v>259</v>
       </c>
-      <c r="T48" t="s">
+      <c r="R48" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>31</v>
       </c>
@@ -4942,7 +4794,7 @@
         <v>90000000</v>
       </c>
       <c r="G49" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H49">
         <v>500000</v>
@@ -4951,19 +4803,16 @@
         <v>1000000</v>
       </c>
       <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
         <v>555</v>
       </c>
-      <c r="S49" t="s">
+      <c r="Q49" t="s">
         <v>259</v>
       </c>
-      <c r="T49" t="s">
+      <c r="R49" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>32</v>
       </c>
@@ -4983,7 +4832,7 @@
         <v>70000000</v>
       </c>
       <c r="G50" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H50">
         <v>500000</v>
@@ -4992,26 +4841,23 @@
         <v>1000000</v>
       </c>
       <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
         <v>555</v>
       </c>
-      <c r="S50" t="s">
+      <c r="Q50" t="s">
         <v>265</v>
       </c>
-      <c r="T50" t="s">
+      <c r="R50" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>33</v>
       </c>
       <c r="B51">
         <v>999</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="26">
         <v>44799</v>
       </c>
       <c r="D51">
@@ -5024,7 +4870,7 @@
         <v>80000000</v>
       </c>
       <c r="G51" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H51">
         <v>500000</v>
@@ -5033,19 +4879,16 @@
         <v>1000000</v>
       </c>
       <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
         <v>666</v>
       </c>
-      <c r="U51" t="s">
-        <v>288</v>
-      </c>
-      <c r="V51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S51" t="s">
+        <v>286</v>
+      </c>
+      <c r="T51" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>34</v>
       </c>
@@ -5065,7 +4908,7 @@
         <v>80000000</v>
       </c>
       <c r="G52" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H52">
         <v>500000</v>
@@ -5074,19 +4917,16 @@
         <v>1000000</v>
       </c>
       <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
         <v>666</v>
       </c>
-      <c r="U52" t="s">
-        <v>288</v>
-      </c>
-      <c r="V52" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S52" t="s">
+        <v>286</v>
+      </c>
+      <c r="T52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>35</v>
       </c>
@@ -5106,7 +4946,7 @@
         <v>80000000</v>
       </c>
       <c r="G53" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H53">
         <v>500000</v>
@@ -5115,26 +4955,23 @@
         <v>1000000</v>
       </c>
       <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
         <v>478</v>
       </c>
-      <c r="U53" t="s">
-        <v>293</v>
-      </c>
-      <c r="V53" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S53" t="s">
+        <v>291</v>
+      </c>
+      <c r="T53" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>36</v>
       </c>
       <c r="B54">
         <v>287</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="26">
         <v>44201</v>
       </c>
       <c r="D54">
@@ -5147,7 +4984,7 @@
         <v>80000000</v>
       </c>
       <c r="G54" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H54">
         <v>500000</v>
@@ -5156,22 +4993,16 @@
         <v>1000000</v>
       </c>
       <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
         <v>478</v>
       </c>
-      <c r="L54">
-        <v>19</v>
-      </c>
-      <c r="U54" t="s">
-        <v>293</v>
-      </c>
-      <c r="V54" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S54" t="s">
+        <v>291</v>
+      </c>
+      <c r="T54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>37</v>
       </c>
@@ -5191,7 +5022,7 @@
         <v>900000</v>
       </c>
       <c r="G55" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H55">
         <v>500000</v>
@@ -5200,19 +5031,13 @@
         <v>1000000</v>
       </c>
       <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
         <v>321</v>
       </c>
-      <c r="L55">
-        <v>20</v>
-      </c>
-      <c r="W55" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>38</v>
       </c>
@@ -5232,7 +5057,7 @@
         <v>900000</v>
       </c>
       <c r="G56" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H56">
         <v>500000</v>
@@ -5241,16 +5066,13 @@
         <v>1000000</v>
       </c>
       <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
         <v>321</v>
       </c>
-      <c r="W56" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>39</v>
       </c>
@@ -5270,7 +5092,7 @@
         <v>900000</v>
       </c>
       <c r="G57" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H57">
         <v>500000</v>
@@ -5279,18 +5101,76 @@
         <v>1000000</v>
       </c>
       <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
         <v>321</v>
       </c>
-      <c r="W57" t="s">
-        <v>301</v>
+      <c r="U57" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E625532-58FB-426E-A7F9-DDC64BC8C103}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5302,26 +5182,26 @@
   <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" customWidth="1"/>
-    <col min="16383" max="16384" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="16383" max="16384" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -5335,7 +5215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -5349,7 +5229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -5363,7 +5243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -5377,7 +5257,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>130</v>
       </c>
@@ -5391,7 +5271,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>133</v>
       </c>
@@ -5405,7 +5285,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>130</v>
       </c>
@@ -5419,7 +5299,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>133</v>
       </c>
@@ -5433,7 +5313,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -5447,7 +5327,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>141</v>
       </c>
@@ -5461,7 +5341,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>141</v>
       </c>
@@ -5475,7 +5355,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>141</v>
       </c>
@@ -5489,7 +5369,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>130</v>
       </c>
@@ -5503,7 +5383,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>130</v>
       </c>
@@ -5517,7 +5397,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>133</v>
       </c>
@@ -5531,7 +5411,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>141</v>
       </c>
@@ -5545,7 +5425,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>130</v>
       </c>
@@ -5559,7 +5439,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>130</v>
       </c>
@@ -5573,7 +5453,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>141</v>
       </c>
@@ -5587,7 +5467,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>133</v>
       </c>
@@ -5601,7 +5481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>130</v>
       </c>
@@ -5615,7 +5495,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>133</v>
       </c>
@@ -5629,7 +5509,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>133</v>
       </c>
@@ -5663,14 +5543,14 @@
       <selection activeCell="H10" sqref="H10:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="4" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -5684,7 +5564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
@@ -5704,7 +5584,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
@@ -5724,7 +5604,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -5744,7 +5624,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>100</v>
       </c>
@@ -5755,11 +5635,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="30"/>
       <c r="F9" t="s">
         <v>111</v>
       </c>
@@ -5770,7 +5650,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>114</v>
       </c>
@@ -5781,7 +5661,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>117</v>
       </c>
@@ -5792,7 +5672,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>120</v>
       </c>
@@ -5803,7 +5683,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>122</v>
       </c>
@@ -5814,7 +5694,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>125</v>
       </c>
@@ -5846,21 +5726,21 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="16383" max="16384" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="16383" max="16384" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="26" t="s">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
@@ -5871,7 +5751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
@@ -5882,7 +5762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -5893,7 +5773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>179</v>
       </c>
@@ -5904,7 +5784,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>180</v>
       </c>
@@ -5915,7 +5795,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>181</v>
       </c>
@@ -5926,7 +5806,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>181</v>
       </c>
@@ -5937,7 +5817,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>182</v>
       </c>
@@ -5948,7 +5828,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>183</v>
       </c>
@@ -5959,7 +5839,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>180</v>
       </c>
@@ -5970,7 +5850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>182</v>
       </c>
@@ -5981,7 +5861,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>180</v>
       </c>
@@ -5992,7 +5872,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>180</v>
       </c>
@@ -6003,7 +5883,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>181</v>
       </c>
@@ -6014,7 +5894,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>182</v>
       </c>
@@ -6025,7 +5905,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>183</v>
       </c>
@@ -6036,7 +5916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>175</v>
       </c>
@@ -6047,7 +5927,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>175</v>
       </c>
@@ -6058,7 +5938,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>175</v>
       </c>
@@ -6069,7 +5949,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>183</v>
       </c>
@@ -6080,7 +5960,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>183</v>
       </c>
@@ -6091,7 +5971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>181</v>
       </c>
@@ -6102,7 +5982,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>180</v>
       </c>
@@ -6113,7 +5993,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>180</v>
       </c>
@@ -6124,7 +6004,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>182</v>
       </c>
@@ -6135,7 +6015,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>182</v>
       </c>
@@ -6146,7 +6026,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>180</v>
       </c>
@@ -6177,24 +6057,24 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
@@ -6211,7 +6091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -6228,7 +6108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -6245,13 +6125,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="27"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="30"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -6268,7 +6148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>186</v>
       </c>
@@ -6285,7 +6165,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>189</v>
       </c>
@@ -6302,7 +6182,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>192</v>
       </c>
@@ -6319,7 +6199,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>194</v>
       </c>
@@ -6336,7 +6216,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>196</v>
       </c>
@@ -6353,7 +6233,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>199</v>
       </c>
@@ -6370,7 +6250,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>202</v>
       </c>
@@ -6387,7 +6267,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>205</v>
       </c>
@@ -6404,7 +6284,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>207</v>
       </c>
@@ -6421,7 +6301,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>210</v>
       </c>
@@ -6438,7 +6318,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>212</v>
       </c>
@@ -6455,7 +6335,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>214</v>
       </c>
@@ -6489,23 +6369,23 @@
   </sheetPr>
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>33</v>
       </c>
@@ -6516,7 +6396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
@@ -6527,7 +6407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -6538,7 +6418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>216</v>
       </c>
@@ -6549,7 +6429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>187</v>
       </c>
@@ -6560,7 +6440,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>187</v>
       </c>
@@ -6571,7 +6451,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>190</v>
       </c>
@@ -6582,7 +6462,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>221</v>
       </c>
@@ -6593,7 +6473,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>221</v>
       </c>
@@ -6604,7 +6484,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>221</v>
       </c>
@@ -6615,7 +6495,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>223</v>
       </c>
@@ -6626,7 +6506,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>225</v>
       </c>
@@ -6637,7 +6517,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>225</v>
       </c>
@@ -6648,7 +6528,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>200</v>
       </c>
@@ -6659,7 +6539,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>203</v>
       </c>
@@ -6670,7 +6550,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>203</v>
       </c>
@@ -6681,7 +6561,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>206</v>
       </c>
@@ -6692,7 +6572,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>208</v>
       </c>
@@ -6703,7 +6583,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>208</v>
       </c>
@@ -6714,7 +6594,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>211</v>
       </c>
@@ -6725,7 +6605,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>213</v>
       </c>
@@ -6736,7 +6616,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>215</v>
       </c>
@@ -6747,7 +6627,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>215</v>
       </c>
@@ -6779,29 +6659,29 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
@@ -6824,7 +6704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
         <v>39</v>
       </c>
@@ -6847,7 +6727,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -6870,18 +6750,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="27" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="30"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -6904,7 +6784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>238</v>
       </c>
@@ -6927,7 +6807,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>238</v>
       </c>
@@ -6950,7 +6830,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>238</v>
       </c>
@@ -6973,7 +6853,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>238</v>
       </c>
@@ -6996,7 +6876,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>238</v>
       </c>
@@ -7019,7 +6899,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>246</v>
       </c>
@@ -7042,7 +6922,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>246</v>
       </c>
@@ -7065,7 +6945,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>246</v>
       </c>
@@ -7088,7 +6968,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>246</v>
       </c>
@@ -7111,7 +6991,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>246</v>
       </c>
@@ -7155,23 +7035,23 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -7185,7 +7065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -7199,7 +7079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
@@ -7213,13 +7093,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="27"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="30"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -7233,7 +7113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>255</v>
       </c>
@@ -7247,7 +7127,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>255</v>
       </c>
@@ -7261,7 +7141,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>255</v>
       </c>
@@ -7275,7 +7155,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>258</v>
       </c>
@@ -7289,7 +7169,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>258</v>
       </c>
@@ -7303,7 +7183,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>258</v>
       </c>
@@ -7317,7 +7197,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>264</v>
       </c>
@@ -7331,7 +7211,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>264</v>
       </c>
@@ -7345,7 +7225,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>264</v>
       </c>
@@ -7380,18 +7260,18 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="4" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="4" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
@@ -7402,7 +7282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -7413,7 +7293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -7424,7 +7304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>273</v>
       </c>
@@ -7435,7 +7315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>256</v>
       </c>
@@ -7446,7 +7326,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>256</v>
       </c>
@@ -7457,7 +7337,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>256</v>
       </c>
@@ -7468,7 +7348,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>256</v>
       </c>
@@ -7479,7 +7359,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>256</v>
       </c>
@@ -7490,7 +7370,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>259</v>
       </c>
@@ -7501,7 +7381,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>259</v>
       </c>
@@ -7512,7 +7392,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>259</v>
       </c>
@@ -7523,7 +7403,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>259</v>
       </c>
@@ -7534,7 +7414,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>259</v>
       </c>
@@ -7545,7 +7425,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>265</v>
       </c>
@@ -7556,7 +7436,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>265</v>
       </c>
@@ -7567,7 +7447,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>265</v>
       </c>
@@ -7578,7 +7458,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>265</v>
       </c>
@@ -7589,7 +7469,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>265</v>
       </c>
@@ -7600,7 +7480,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>265</v>
       </c>

--- a/docs/ModeloRelacional2.xlsx
+++ b/docs/ModeloRelacional2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.cordero\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jupis\Documents\Universidad\Universidad\Systrans\Iteracion#3\AlohAndes\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E702CDDD-A2D5-4BEA-8842-6AD3E23C86F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58130EB-FEC9-46F3-9F98-F5314C149F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="2685" windowWidth="21600" windowHeight="11835" tabRatio="500" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstalacionHabitacionHotel" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="363">
   <si>
     <t>InstalacionHabitacionHotel</t>
   </si>
@@ -1131,6 +1131,15 @@
   </si>
   <si>
     <t>idOferta</t>
+  </si>
+  <si>
+    <t>idReserva</t>
+  </si>
+  <si>
+    <t>PK, SA</t>
+  </si>
+  <si>
+    <t>ReservaColectiva</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1336,6 +1345,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5115,58 +5125,80 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E625532-58FB-426E-A7F9-DDC64BC8C103}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>94</v>
+        <v>361</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="D3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>277</v>
       </c>
       <c r="C4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6369,7 +6401,7 @@
   </sheetPr>
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -7256,7 +7288,7 @@
   </sheetPr>
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
